--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>615793.4470980653</v>
+        <v>613905.8655816631</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>413036.3898483797</v>
+        <v>262495.9780944904</v>
       </c>
     </row>
     <row r="8">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>155.4690229548976</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>42.98011840997166</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -798,7 +798,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609193</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>196.7218456862863</v>
+        <v>205.3743261851594</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +911,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>56.76542271507753</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>311.072271888288</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>54.66509595813642</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>49.38957925603669</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>52.85520629234721</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>170.7967106202361</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1333,22 +1333,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>174.0382101334478</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>281.6126679114864</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634822</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274054</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1464,10 +1464,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262918</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014433</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>112.8722262355895</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1576,19 +1576,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>3.63334160277873</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274054</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1701,10 +1701,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262918</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014433</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151941</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>118.4928596663643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710089</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.1244053407484</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,13 +2053,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>114.9309043193591</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710089</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>12.68762643336756</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>244.4790359394337</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G23" t="n">
         <v>411.9645167896915</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.65998169097765</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>89.75370286975797</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2570,10 +2570,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,22 +2713,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>49.00108914720121</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>4.875748379491315</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533804</v>
+        <v>124.6287235533806</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700709</v>
+        <v>112.0435644700712</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965546</v>
+        <v>93.4122163896557</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801227</v>
+        <v>76.90718818967459</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437434</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348207</v>
+        <v>111.2903118348209</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897923</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>53.0859733416622</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523587</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.7175533550466</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298323</v>
+        <v>166.3443044298326</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700204</v>
+        <v>231.0340957700207</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952711</v>
+        <v>196.9343866952713</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080341</v>
+        <v>231.3197417080343</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.5063987604805</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235381</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
         <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1637.643464250441</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="C2" t="n">
-        <v>1268.68094731003</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224079</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>2422.528652842713</v>
       </c>
       <c r="V2" t="n">
-        <v>2147.451536646714</v>
+        <v>2091.465765499142</v>
       </c>
       <c r="W2" t="n">
-        <v>1794.6828813766</v>
+        <v>2091.465765499142</v>
       </c>
       <c r="X2" t="n">
-        <v>1794.6828813766</v>
+        <v>1718.000007238062</v>
       </c>
       <c r="Y2" t="n">
-        <v>1794.6828813766</v>
+        <v>1327.86067526225</v>
       </c>
     </row>
     <row r="3">
@@ -4404,16 +4404,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417902</v>
@@ -4428,22 +4428,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>261.3917961488083</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>261.3917961488083</v>
       </c>
       <c r="W4" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2053.247973680502</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C5" t="n">
-        <v>1684.28545674009</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D5" t="n">
-        <v>1326.01975813334</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E5" t="n">
-        <v>940.2315055350957</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>529.2456007454882</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>111.2817926436751</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>111.2817926436751</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656314</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W5" t="n">
-        <v>2443.387305656314</v>
+        <v>1914.44116270037</v>
       </c>
       <c r="X5" t="n">
-        <v>2443.387305656314</v>
+        <v>1600.226746651594</v>
       </c>
       <c r="Y5" t="n">
-        <v>2053.247973680502</v>
+        <v>1210.087414675782</v>
       </c>
     </row>
     <row r="6">
@@ -4644,31 +4644,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.942782082032</v>
+        <v>109.1602504649467</v>
       </c>
       <c r="C7" t="n">
-        <v>222.942782082032</v>
+        <v>109.1602504649467</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>678.2405203114477</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>678.2405203114477</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>450.9323329800494</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U7" t="n">
-        <v>450.9323329800494</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="V7" t="n">
-        <v>450.9323329800494</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="W7" t="n">
-        <v>450.9323329800494</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="X7" t="n">
-        <v>222.942782082032</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.942782082032</v>
+        <v>290.8087152951864</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>609.3508327416157</v>
+        <v>1448.013466588443</v>
       </c>
       <c r="C8" t="n">
-        <v>240.388315801204</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D8" t="n">
-        <v>240.388315801204</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E8" t="n">
-        <v>240.388315801204</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4832,22 +4832,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312743</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W8" t="n">
-        <v>1759.555763042629</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="X8" t="n">
-        <v>1386.090004781549</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="Y8" t="n">
-        <v>995.9506728057374</v>
+        <v>1834.613306652565</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>308.6274700262513</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="11">
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823717</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514029</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795202</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619125</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899127</v>
@@ -5063,28 +5063,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5103,43 +5103,43 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E12" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047444</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316293</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358146</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675023</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>674.428562457161</v>
+        <v>508.107360304799</v>
       </c>
       <c r="L12" t="n">
-        <v>1079.287811648746</v>
+        <v>1122.004430061688</v>
       </c>
       <c r="M12" t="n">
-        <v>1847.655958041207</v>
+        <v>1346.92104021188</v>
       </c>
       <c r="N12" t="n">
-        <v>2192.176613678825</v>
+        <v>1691.441695849498</v>
       </c>
       <c r="O12" t="n">
-        <v>2440.930027762787</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>506.032482273508</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>506.032482273508</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688075</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799372</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471203</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974668</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980065</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585748</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1495.246228534896</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1271.460813324402</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557903</v>
+        <v>982.3321745379599</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352016</v>
+        <v>727.647686332073</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150555</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X13" t="n">
-        <v>726.8250614170381</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y13" t="n">
-        <v>506.032482273508</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823792</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514096</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795209</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.1647015151</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643329</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5340,40 +5340,40 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047444</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316293</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358146</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675023</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>508.107360304799</v>
       </c>
       <c r="L15" t="n">
-        <v>904.3916683255102</v>
+        <v>738.0704661731481</v>
       </c>
       <c r="M15" t="n">
-        <v>1224.726987855212</v>
+        <v>1506.43861256561</v>
       </c>
       <c r="N15" t="n">
-        <v>2029.138566119363</v>
+        <v>1506.43861256561</v>
       </c>
       <c r="O15" t="n">
-        <v>2440.930027762787</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688076</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799372</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471204</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974668</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980066</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585749</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473457</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.210845262963</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609669</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V16" t="n">
-        <v>986.0022165609669</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W16" t="n">
-        <v>696.5850465240063</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>696.5850465240063</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>576.8952892852544</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5510,55 +5510,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>508.1073603047986</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L18" t="n">
-        <v>802.0403666355637</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M18" t="n">
-        <v>1570.408513028025</v>
+        <v>1121.206181409496</v>
       </c>
       <c r="N18" t="n">
-        <v>2374.820091292176</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O18" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>566.6879222525852</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>397.7517393246783</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,10 +5689,10 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
         <v>1387.841167119728</v>
@@ -5701,22 +5701,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="U19" t="n">
-        <v>1387.841167119728</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V19" t="n">
-        <v>1387.841167119728</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W19" t="n">
-        <v>1098.423997082768</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X19" t="n">
-        <v>870.4344461847501</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>649.6418670412199</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,25 +5735,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5762,40 +5762,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028589</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028589</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L21" t="n">
-        <v>327.180197328635</v>
+        <v>352.8380350170344</v>
       </c>
       <c r="M21" t="n">
-        <v>897.6601296826477</v>
+        <v>1121.206181409496</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.071707946799</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O21" t="n">
-        <v>2371.535469249458</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P21" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>397.7517393246783</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>397.7517393246783</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1375.025382843599</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347409</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U22" t="n">
-        <v>1275.130855347409</v>
+        <v>862.1113288466634</v>
       </c>
       <c r="V22" t="n">
-        <v>1028.182334196465</v>
+        <v>607.4268406407765</v>
       </c>
       <c r="W22" t="n">
-        <v>1028.182334196465</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X22" t="n">
-        <v>800.1927832984481</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>579.400204154918</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>508.1073603047986</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L24" t="n">
-        <v>738.0704661731477</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M24" t="n">
-        <v>738.0704661731477</v>
+        <v>327.180197328635</v>
       </c>
       <c r="N24" t="n">
-        <v>1542.482044437299</v>
+        <v>1131.591775592786</v>
       </c>
       <c r="O24" t="n">
-        <v>2211.945805739958</v>
+        <v>1801.055536895445</v>
       </c>
       <c r="P24" t="n">
-        <v>2554.178946862809</v>
+        <v>2321.356158631193</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>731.3351829786184</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C25" t="n">
-        <v>562.3990000507115</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D25" t="n">
-        <v>412.2823606383757</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2823606383757</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1297.180861190679</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1073.395445980185</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557903</v>
+        <v>1073.395445980185</v>
       </c>
       <c r="V25" t="n">
-        <v>1244.231782352016</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="W25" t="n">
-        <v>954.8146123150552</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="X25" t="n">
-        <v>954.8146123150552</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y25" t="n">
-        <v>734.0220331715251</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
@@ -6212,64 +6212,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823778</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L27" t="n">
-        <v>904.3916683255102</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M27" t="n">
-        <v>1224.726987855212</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="N27" t="n">
-        <v>2029.138566119363</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O27" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>394.5250474102528</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C28" t="n">
-        <v>394.5250474102528</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D28" t="n">
-        <v>394.5250474102528</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E28" t="n">
-        <v>394.5250474102528</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471194</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1164.055751909234</v>
+        <v>1249.500210829817</v>
       </c>
       <c r="U28" t="n">
-        <v>874.9271131227923</v>
+        <v>960.3715720433756</v>
       </c>
       <c r="V28" t="n">
-        <v>620.2426249169055</v>
+        <v>705.6870838374889</v>
       </c>
       <c r="W28" t="n">
-        <v>615.3176265537829</v>
+        <v>416.2699138005283</v>
       </c>
       <c r="X28" t="n">
-        <v>615.3176265537829</v>
+        <v>416.2699138005283</v>
       </c>
       <c r="Y28" t="n">
-        <v>394.5250474102528</v>
+        <v>416.2699138005284</v>
       </c>
     </row>
     <row r="29">
@@ -6440,43 +6440,43 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899128</v>
@@ -6485,25 +6485,25 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K30" t="n">
-        <v>572.0772607672145</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L30" t="n">
-        <v>802.0403666355637</v>
+        <v>539.3723184115837</v>
       </c>
       <c r="M30" t="n">
-        <v>1570.408513028025</v>
+        <v>1307.740464804045</v>
       </c>
       <c r="N30" t="n">
-        <v>2374.820091292176</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O30" t="n">
-        <v>2623.573505376138</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P30" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>748.7232886194528</v>
+        <v>494.8466681110153</v>
       </c>
       <c r="C31" t="n">
-        <v>635.5479709729166</v>
+        <v>381.6713504644787</v>
       </c>
       <c r="D31" t="n">
-        <v>541.1921968419514</v>
+        <v>287.3155763335134</v>
       </c>
       <c r="E31" t="n">
-        <v>449.0399685409288</v>
+        <v>209.6315478590949</v>
       </c>
       <c r="F31" t="n">
-        <v>357.9108863243891</v>
+        <v>209.6315478590949</v>
       </c>
       <c r="G31" t="n">
-        <v>245.4964299255803</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>150.8392867548941</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864668</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933499</v>
+        <v>369.0876362933494</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667505</v>
+        <v>671.4509053667497</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962047</v>
+        <v>997.6688721962034</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286022</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.39040735369</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021644</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056073</v>
+        <v>1936.126063056071</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1936.126063056071</v>
       </c>
       <c r="S31" t="n">
-        <v>1880.81182489927</v>
+        <v>1791.966918252993</v>
       </c>
       <c r="T31" t="n">
-        <v>1712.787274970146</v>
+        <v>1623.942368323869</v>
       </c>
       <c r="U31" t="n">
-        <v>1479.419501465075</v>
+        <v>1390.574594818798</v>
       </c>
       <c r="V31" t="n">
-        <v>1280.495878540559</v>
+        <v>1191.650971894282</v>
       </c>
       <c r="W31" t="n">
-        <v>1046.839573784969</v>
+        <v>957.9946671386914</v>
       </c>
       <c r="X31" t="n">
-        <v>874.6108881683218</v>
+        <v>785.7659815220444</v>
       </c>
       <c r="Y31" t="n">
-        <v>874.6108881683218</v>
+        <v>620.7342676598846</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L33" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>2056.693778606511</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N33" t="n">
-        <v>2623.573505376138</v>
+        <v>1786.860405229007</v>
       </c>
       <c r="O33" t="n">
-        <v>2623.573505376138</v>
+        <v>2035.613819312969</v>
       </c>
       <c r="P33" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6862,19 +6862,19 @@
         <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
         <v>2038.520840384657</v>
@@ -6886,7 +6886,7 @@
         <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025263</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,40 +6926,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7002,40 +7002,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="M36" t="n">
-        <v>1819.161927111987</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="N36" t="n">
-        <v>2623.573505376138</v>
+        <v>1312.51893856895</v>
       </c>
       <c r="O36" t="n">
-        <v>2623.573505376138</v>
+        <v>1981.982699871609</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2502.283321607356</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229675</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7090,16 +7090,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7160,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7175,34 +7175,34 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M39" t="n">
-        <v>1819.161927111987</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="N39" t="n">
-        <v>2623.573505376138</v>
+        <v>1128.069692924717</v>
       </c>
       <c r="O39" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7336,7 +7336,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7348,7 +7348,7 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
         <v>2038.520840384657</v>
@@ -7357,7 +7357,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771664</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7406,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7424,37 +7424,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>508.1073603047985</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>1122.004430061687</v>
+        <v>904.3916683255102</v>
       </c>
       <c r="M42" t="n">
-        <v>1819.161927111988</v>
+        <v>1541.916528628193</v>
       </c>
       <c r="N42" t="n">
-        <v>2623.573505376138</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O42" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7661,13 +7661,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7713,40 +7713,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028584</v>
+        <v>904.3916683255102</v>
       </c>
       <c r="M45" t="n">
-        <v>334.2881267578673</v>
+        <v>1224.726987855212</v>
       </c>
       <c r="N45" t="n">
-        <v>1138.699705022018</v>
+        <v>1569.24764349283</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
         <v>320.8847398504512</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8775,7 +8775,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>369.3225290232218</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9015,7 +9015,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9249,7 +9249,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>429.7445997144264</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9258,10 +9258,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,7 +9483,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>228.7561387742036</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9960,19 +9960,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>425.8851177901071</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10440,13 +10440,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10668,22 +10668,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10908,19 +10908,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11151,13 +11151,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,19 +11376,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>373.1879724591382</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>35.74324678262289</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>194.2874683808245</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>82.39383318338324</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>100.0917936857305</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.7075748411889</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23941,13 +23941,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>106.6166567390301</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>185.2331835502357</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>7.658607384394259</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>177.1719984909597</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,10 +24373,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>108.1671071138453</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24601,22 +24601,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>172.546471911188</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>281.6472499570997</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>14.32351782833793</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437459</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897947</v>
       </c>
       <c r="I31" t="n">
-        <v>2.130015494052925</v>
+        <v>55.21598883571534</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523614</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550463</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="C2" t="n">
         <v>348942.7521923205</v>
       </c>
       <c r="D2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923207</v>
       </c>
       <c r="E2" t="n">
-        <v>332374.7007770523</v>
+        <v>332374.7007770526</v>
       </c>
       <c r="F2" t="n">
-        <v>332374.7007770523</v>
+        <v>332374.7007770521</v>
       </c>
       <c r="G2" t="n">
         <v>332374.7007770521</v>
       </c>
       <c r="H2" t="n">
-        <v>332374.7007770524</v>
+        <v>332374.7007770522</v>
       </c>
       <c r="I2" t="n">
-        <v>332374.7007770522</v>
+        <v>332374.7007770523</v>
       </c>
       <c r="J2" t="n">
-        <v>332374.7007770523</v>
+        <v>332374.7007770521</v>
       </c>
       <c r="K2" t="n">
         <v>345798.8167434799</v>
       </c>
       <c r="L2" t="n">
-        <v>348942.7521923202</v>
+        <v>348942.7521923203</v>
       </c>
       <c r="M2" t="n">
         <v>348942.7521923203</v>
       </c>
       <c r="N2" t="n">
+        <v>348942.7521923202</v>
+      </c>
+      <c r="O2" t="n">
         <v>348942.7521923204</v>
-      </c>
-      <c r="O2" t="n">
-        <v>348942.7521923203</v>
       </c>
       <c r="P2" t="n">
         <v>348942.7521923203</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768973</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284552</v>
+        <v>44162.6053028453</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086701</v>
+        <v>10342.90680086735</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284554</v>
+        <v>44162.60530284532</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26424,37 +26424,37 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905757954</v>
+        <v>787.7936905758704</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905757998</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758102</v>
+        <v>787.7936905758887</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758102</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758822</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758412</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477235</v>
+        <v>18952.41620477227</v>
       </c>
       <c r="L4" t="n">
+        <v>23206.58093189634</v>
+      </c>
+      <c r="M4" t="n">
+        <v>23206.58093189632</v>
+      </c>
+      <c r="N4" t="n">
         <v>23206.58093189635</v>
       </c>
-      <c r="M4" t="n">
-        <v>23206.58093189635</v>
-      </c>
-      <c r="N4" t="n">
-        <v>23206.58093189634</v>
-      </c>
       <c r="O4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189631</v>
       </c>
       <c r="P4" t="n">
         <v>23206.58093189634</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,37 +26476,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022278</v>
+        <v>96628.20853022276</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-462943.3442662525</v>
+        <v>-462943.3442662527</v>
       </c>
       <c r="C6" t="n">
         <v>127024.534948292</v>
       </c>
       <c r="D6" t="n">
-        <v>127024.5349482919</v>
+        <v>127024.5349482921</v>
       </c>
       <c r="E6" t="n">
-        <v>-285560.4553391365</v>
+        <v>-285657.9144651095</v>
       </c>
       <c r="F6" t="n">
-        <v>239599.5811377598</v>
+        <v>239502.1220117874</v>
       </c>
       <c r="G6" t="n">
-        <v>239599.5811377597</v>
+        <v>239502.1220117886</v>
       </c>
       <c r="H6" t="n">
-        <v>239599.5811377599</v>
+        <v>239502.1220117875</v>
       </c>
       <c r="I6" t="n">
-        <v>239599.5811377597</v>
+        <v>239502.1220117876</v>
       </c>
       <c r="J6" t="n">
-        <v>63176.36194516691</v>
+        <v>63078.9028191945</v>
       </c>
       <c r="K6" t="n">
-        <v>186055.5867056393</v>
+        <v>186037.0929677052</v>
       </c>
       <c r="L6" t="n">
-        <v>217678.1586395315</v>
+        <v>217678.1586395312</v>
       </c>
       <c r="M6" t="n">
-        <v>93220.05020656135</v>
+        <v>93220.05020656143</v>
       </c>
       <c r="N6" t="n">
-        <v>228021.0654403986</v>
+        <v>228021.0654403985</v>
       </c>
       <c r="O6" t="n">
-        <v>228021.0654403986</v>
+        <v>228021.0654403987</v>
       </c>
       <c r="P6" t="n">
-        <v>183858.460137553</v>
+        <v>183858.4601375533</v>
       </c>
     </row>
   </sheetData>
@@ -26707,19 +26707,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855666</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964062</v>
@@ -26735,34 +26735,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541017</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541017</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541004</v>
@@ -26774,10 +26774,10 @@
         <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26799,16 +26799,16 @@
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855662</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108377</v>
+        <v>12.92863350108398</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855664</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.638741237015</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855662</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>227.264818708583</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>208.2440490983176</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27518,7 +27518,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,19 +27591,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>89.80115265030474</v>
+        <v>81.14867215143155</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27616,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16589352978372</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27676,10 +27676,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>58.65882879018102</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>93.95037706007594</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>97.27561272412117</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>312.4176854786604</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>236.0793351214753</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>50.99689532463643</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>4.669206330491363</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.631974555493798e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29047,7 +29047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855666</v>
       </c>
       <c r="C31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855666</v>
       </c>
       <c r="D31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855666</v>
       </c>
       <c r="E31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855666</v>
       </c>
       <c r="F31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855666</v>
       </c>
       <c r="G31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855666</v>
       </c>
       <c r="H31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855666</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855666</v>
       </c>
       <c r="J31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855666</v>
       </c>
       <c r="K31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855666</v>
       </c>
       <c r="L31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855666</v>
       </c>
       <c r="M31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855666</v>
       </c>
       <c r="N31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855666</v>
       </c>
       <c r="O31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855666</v>
       </c>
       <c r="P31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855666</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855666</v>
       </c>
       <c r="R31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855666</v>
       </c>
       <c r="S31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855666</v>
       </c>
       <c r="T31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855666</v>
       </c>
       <c r="U31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855666</v>
       </c>
       <c r="V31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855666</v>
       </c>
       <c r="W31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855666</v>
       </c>
       <c r="X31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855666</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855666</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30520,7 +30520,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,22 +31118,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
-        <v>87.78329382423951</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942338</v>
       </c>
       <c r="M3" t="n">
         <v>205.8702969983122</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31376,28 +31376,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>60.29709682323551</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,19 +31592,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>87.78329382423996</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454958058</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443622</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444951</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176654</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961209</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041495</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304449</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565528</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927196</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540896</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130947001</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647502</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446481</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104662</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562946</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354898</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,31 +31829,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354106</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386728</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127075</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622987</v>
       </c>
       <c r="L12" t="n">
-        <v>176.6627710335713</v>
+        <v>387.8120847358991</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>424.9599466855533</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -31862,16 +31862,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.895220109512</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.1761272367747</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361502</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680333</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081167</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990347</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298637</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822385</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557937</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196128</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171323</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263754</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065636</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469076</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235693</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337681</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336905</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892256</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351828</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443622</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444951</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176654</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961209</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041495</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304449</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565528</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927196</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540896</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946927</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647502</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446481</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104662</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562946</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354898</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354106</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386728</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127075</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622987</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>452.5584109724854</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>164.6848965247092</v>
+        <v>394.574327068182</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.994806871096</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.1761272367747</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361502</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680333</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081167</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990347</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298637</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822385</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557937</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196128</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171323</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263754</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065636</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469076</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235693</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337681</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336905</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892256</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351828</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>64.61606107314748</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32400,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,40 +32464,40 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,10 +32546,10 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -32558,22 +32558,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>252.6713260851625</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677465</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,19 +32777,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -32798,25 +32798,25 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>161.2016803126265</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>224.4371476104204</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>349.1732577503163</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130947006</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,28 +33251,28 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>185.0317243401302</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>87.71167780314272</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -33284,13 +33284,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33421,7 +33421,7 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041472</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
         <v>526.7962671304441</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622983</v>
@@ -33506,22 +33506,22 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>100.5826050876808</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677465</v>
@@ -33655,7 +33655,7 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961188</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041489</v>
@@ -33734,31 +33734,31 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>212.6272478467029</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>41.68243753348732</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
@@ -33895,7 +33895,7 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041472</v>
       </c>
       <c r="L38" t="n">
         <v>526.7962671304441</v>
@@ -33916,7 +33916,7 @@
         <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446464</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
         <v>76.06970478104651</v>
@@ -33971,31 +33971,31 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>212.6272478467029</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>45.93795062015323</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
@@ -34123,7 +34123,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34132,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,22 +34205,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>380.6284621420188</v>
+        <v>320.3934755282634</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34229,10 +34229,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677465</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34296,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.490283364748</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,19 +34436,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -34457,25 +34457,25 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,10 +35264,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415084</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109081</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221126</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081129</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951482</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502054</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349844</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005183</v>
       </c>
       <c r="L12" t="n">
-        <v>408.9487365571563</v>
+        <v>620.0980502594841</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>227.1884951012035</v>
       </c>
       <c r="N12" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178385</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686883</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556572</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299109</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799289</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789729</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.276877805604</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206032</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118011</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187496</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415084</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109081</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221126</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081129</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951482</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109059</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502054</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349844</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005183</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004669</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>415.9509713569943</v>
+        <v>645.8404019004671</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>298.0903205209236</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556572</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299109</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799289</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789729</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.276877805604</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206032</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118011</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187496</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>296.9020265967325</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>287.6105657924081</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>90.20175899432947</v>
       </c>
       <c r="M21" t="n">
-        <v>576.2423559131441</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
@@ -36446,19 +36446,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>345.6900415382334</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>294.532661260248</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415666</v>
+        <v>294.5434057067737</v>
       </c>
       <c r="O27" t="n">
-        <v>600.4393325826014</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>311.6555223783498</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>319.9976433267277</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412245</v>
+        <v>67.71102679412218</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584672</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084852</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075294</v>
+        <v>329.5130978075292</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341603</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491598</v>
+        <v>291.4406081491595</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.5868572403574</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043168</v>
+        <v>94.42895660043141</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303314</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109073</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005179</v>
@@ -37154,22 +37154,22 @@
         <v>620.0980502594836</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>285.0709663132877</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594836</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>536.1982776746845</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>812.5369477415666</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>111.7779511833149</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502436</v>
@@ -37543,7 +37543,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109073</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594836</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>536.1982776746845</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415666</v>
+        <v>393.9386128803735</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502436</v>
@@ -37783,25 +37783,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>704.1994919700004</v>
+        <v>643.964505356245</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>239.4656922197792</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>230.5917280146938</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
